--- a/similarities/split_global/harmonic_similarity_timestamps_78.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'A#:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:55.140000', '0:01:04.880000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=55.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:24.380000')]</t>
+          <t>('0:00:55.800000', '0:01:04.680000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:05.860000', '0:00:23.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=55.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:00:24.520000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:10.540000', '0:00:12.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:13.723015', '0:00:16.393310')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=13.723015</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.540000', '0:01:00'), ('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:42.880000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:16.520000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=16.52</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:57.600000', '0:01:08.120000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Bb/2', 'C:min', 'Bb/2', 'Eb', 'Ab/5', 'Eb', 'Ab/5', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'A:min', 'G', 'C', 'F', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:11.244000', '0:00:25.693000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:10.664331', '0:00:25.606371')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=11.244</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=10.664331</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+          <t>('0:00:08.085475', '0:00:18.139715')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=8.085475</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.560000', '0:00:57.900000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=39.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.120000', '0:00:50.740000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/A', 'A:7']]</t>
+          <t>['D/5', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D', 'A:7']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:55.280000', '0:01:00.180000')]</t>
+          <t>('0:01:22.297891', '0:01:32.619160')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:05.097068', '0:01:13.909041')]</t>
+          <t>('0:00:58.350000', '0:01:04.070000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=55.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=82.297891</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=65.097068']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.860000', '0:00:24.540000')]</t>
+          <t>('0:00:01.300000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:57.401473', '0:01:02.625963')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=16.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
